--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_4.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1125630.179663336</v>
+        <v>-1068814.199853026</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17424043.67672896</v>
+        <v>16759483.4356938</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>492028.9342484446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10082505.00436844</v>
+        <v>10067821.29764239</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>1.139713432221706</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>111.4565008585465</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>25.84113073515398</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>108.1418952617195</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>242.8549918952506</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>103.1419780764796</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>123.8385160221674</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1066,13 +1066,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>21.90334879170947</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>418.9784949531792</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>337.0311136373214</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>50.38971918733559</v>
       </c>
       <c r="D10" t="n">
-        <v>36.13411232185196</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>206.1461540793188</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1424,16 +1424,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>173.0943338214818</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>122.9742767430575</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>122.4914619056497</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>172.6623007436915</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2090,7 +2090,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>172.6623007436915</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2482,19 +2482,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>73.01514676193533</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225763</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>123.2901323038659</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>35.51678257079493</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432407</v>
+        <v>71.53763939432389</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934501</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S34" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T34" t="n">
         <v>227.1849416185819</v>
       </c>
       <c r="U34" t="n">
-        <v>259.4129604006784</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V34" t="n">
         <v>267.8502427095265</v>
@@ -3253,7 +3253,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C37" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S37" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T37" t="n">
         <v>227.1849416185819</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C40" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934451</v>
       </c>
       <c r="S40" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3727,7 +3727,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925401</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C43" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432406</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.96793274293449</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S43" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3983,13 @@
         <v>415.3149766385525</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>413.2012870545403</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>407.3530449561369</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>381.1481427242213</v>
       </c>
       <c r="H44" t="n">
         <v>270.0031426724685</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925395</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>240.3943693174058</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>342.7550702267643</v>
       </c>
       <c r="W44" t="n">
         <v>384.5711897043296</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.537639394324</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934426</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4192,13 +4192,13 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W46" t="n">
         <v>253.070430030824</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811742</v>
       </c>
       <c r="Y46" t="n">
         <v>208.9097636402854</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>837.5030339308241</v>
+        <v>791.594329785565</v>
       </c>
       <c r="C2" t="n">
-        <v>408.9213596680925</v>
+        <v>757.4922610093925</v>
       </c>
       <c r="D2" t="n">
-        <v>377.0519788829411</v>
+        <v>725.622880224241</v>
       </c>
       <c r="E2" t="n">
-        <v>347.3176380816403</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="L2" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="M2" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K2" t="n">
-        <v>874.0494664914149</v>
-      </c>
-      <c r="L2" t="n">
-        <v>874.0494664914149</v>
-      </c>
-      <c r="M2" t="n">
-        <v>874.0494664914149</v>
-      </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>991.6923035150976</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W2" t="n">
-        <v>879.1099794155557</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X2" t="n">
-        <v>864.0079200352704</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y2" t="n">
-        <v>859.7622003753279</v>
+        <v>1217.893900270473</v>
       </c>
     </row>
     <row r="3">
@@ -4386,19 +4386,19 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,19 +4410,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>365.5392701431375</v>
+        <v>523.1146084662527</v>
       </c>
       <c r="C4" t="n">
-        <v>365.5392701431375</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="D4" t="n">
-        <v>365.5392701431375</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="E4" t="n">
-        <v>365.5392701431375</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F4" t="n">
-        <v>365.5392701431375</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9479951689651</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>60.04582085933964</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1566.63415311139</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1397.332608038895</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V4" t="n">
-        <v>1110.377099909325</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W4" t="n">
-        <v>838.3506954956167</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X4" t="n">
-        <v>592.9589408290292</v>
+        <v>750.5342791521443</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.5392701431375</v>
+        <v>523.1146084662527</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>847.0638324846691</v>
+        <v>1515.445193135933</v>
       </c>
       <c r="C5" t="n">
-        <v>812.9617637084964</v>
+        <v>1077.302720319357</v>
       </c>
       <c r="D5" t="n">
-        <v>781.092382923345</v>
+        <v>641.3929354938011</v>
       </c>
       <c r="E5" t="n">
-        <v>751.3580421220443</v>
+        <v>611.6585946925004</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4906125312521</v>
+        <v>587.8315691421122</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>342.523496520647</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.39334196386321</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386321</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6480294167811</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6480294167811</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6480294167811</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>488.6480294167811</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>632.5290338758945</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.271640678701</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.014247481509</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.513033440103</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.66709819316</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.015224376997</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2365.947997250036</v>
       </c>
       <c r="U5" t="n">
-        <v>1393.464329137293</v>
+        <v>2365.947997250036</v>
       </c>
       <c r="V5" t="n">
-        <v>1393.464329137293</v>
+        <v>2365.947997250036</v>
       </c>
       <c r="W5" t="n">
-        <v>1392.64927858873</v>
+        <v>2365.132946701473</v>
       </c>
       <c r="X5" t="n">
-        <v>1377.547219208445</v>
+        <v>1945.990483280784</v>
       </c>
       <c r="Y5" t="n">
-        <v>1273.363402969577</v>
+        <v>1537.704359580437</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5650869551559</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1086257917983</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0183369383515</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.8979222653052</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5140838814668</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.12899414765073</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386321</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.4570151243208</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0153400905331</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0153400905331</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0153400905331</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0153400905331</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0153400905331</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0153400905331</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.460325348332</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.633103442672</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.177665891055</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.999022221657</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.662475221625</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.544957283624</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2222030168184</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3547672556983</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8689880349191</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1113.00182921349</v>
+        <v>900.3248731153481</v>
       </c>
       <c r="C7" t="n">
-        <v>940.4401176967148</v>
+        <v>727.763161598573</v>
       </c>
       <c r="D7" t="n">
-        <v>774.5621248982375</v>
+        <v>561.8851688000957</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>392.127165050833</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>215.4201110125892</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>215.4201110125892</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>75.51793670296368</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386321</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.973027128553</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7314816996886</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.5555097941472</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.03937697506</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.298180132705</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2153.967429358486</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.474323328828</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.66709819316</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.249276898532</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.249276898532</v>
       </c>
       <c r="T7" t="n">
-        <v>1516.524240083786</v>
+        <v>2402.369830476987</v>
       </c>
       <c r="U7" t="n">
-        <v>1238.091239336891</v>
+        <v>2123.936829730093</v>
       </c>
       <c r="V7" t="n">
-        <v>1238.091239336891</v>
+        <v>1836.981321600523</v>
       </c>
       <c r="W7" t="n">
-        <v>1238.091239336891</v>
+        <v>1564.954917186815</v>
       </c>
       <c r="X7" t="n">
-        <v>1238.091239336891</v>
+        <v>1319.563162520227</v>
       </c>
       <c r="Y7" t="n">
-        <v>1238.091239336891</v>
+        <v>1092.143491834335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>163.1582120079518</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C8" t="n">
-        <v>129.0561432317791</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D8" t="n">
-        <v>97.18676244662768</v>
+        <v>423.987815023316</v>
       </c>
       <c r="E8" t="n">
-        <v>67.45242164532692</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F8" t="n">
-        <v>43.62539609493871</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>43.62539609493871</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>43.62539609493871</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>43.62539609493871</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>43.62539609493871</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>583.4896727698052</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>583.4896727698052</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>583.4896727698052</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>583.4896727698052</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1123.353949444672</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1472.251463319012</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2012.115739993878</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2181.269804746935</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2181.269804746935</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2181.269804746935</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2181.269804746935</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1818.652854680762</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1413.797400091795</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>994.6549366711057</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>586.3688129707591</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.7971410862315</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.3406799228738</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.2503910694271</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.1299763963808</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.7461380125424</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.36104827872623</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.62539609493871</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.68906925539632</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.2473942216087</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>934.1116708964751</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1049.828102804541</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.828102804541</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.828102804541</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.828102804541</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.828102804541</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.692379479408</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.865157573748</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.409720022131</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.231076352732</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.894529352701</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.7770114147</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.4542571478939</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.5868213867739</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.1010421659946</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.6862109671198</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C10" t="n">
-        <v>80.12449945034473</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>43.62539609493871</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>43.62539609493871</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>43.62539609493871</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>43.62539609493871</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>43.62539609493871</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>43.62539609493871</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>43.62539609493871</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>43.62539609493871</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>461.8352778628998</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>921.3191450438129</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1363.577948201458</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1783.247197427239</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2130.754091397581</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2181.269804746935</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2159.851983452307</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2000.610614750304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1754.731168328759</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>1476.298167581864</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V10" t="n">
-        <v>1189.342659452295</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W10" t="n">
-        <v>917.3162550385862</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X10" t="n">
-        <v>671.9245003719986</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y10" t="n">
-        <v>444.5048296861069</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1863.459741475513</v>
+        <v>2524.205911056827</v>
       </c>
       <c r="C11" t="n">
-        <v>1655.231303011554</v>
+        <v>2086.06343824025</v>
       </c>
       <c r="D11" t="n">
-        <v>1219.321518185998</v>
+        <v>1650.153653414695</v>
       </c>
       <c r="E11" t="n">
-        <v>785.5467733442931</v>
+        <v>1216.37890857299</v>
       </c>
       <c r="F11" t="n">
-        <v>357.6793437535009</v>
+        <v>788.5114789821977</v>
       </c>
       <c r="G11" t="n">
-        <v>357.6793437535009</v>
+        <v>387.1136476054616</v>
       </c>
       <c r="H11" t="n">
-        <v>68.54918919671715</v>
+        <v>97.98349304867784</v>
       </c>
       <c r="I11" t="n">
-        <v>68.13239982385716</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J11" t="n">
-        <v>68.13239982385716</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K11" t="n">
-        <v>902.4826917820352</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L11" t="n">
-        <v>1720.343095552393</v>
+        <v>1172.626669928677</v>
       </c>
       <c r="M11" t="n">
-        <v>1720.343095552393</v>
+        <v>2329.674505139228</v>
       </c>
       <c r="N11" t="n">
-        <v>2563.481543372626</v>
+        <v>3455.405488575675</v>
       </c>
       <c r="O11" t="n">
-        <v>3406.619991192858</v>
+        <v>4435.585155145982</v>
       </c>
       <c r="P11" t="n">
-        <v>3406.619991192858</v>
+        <v>4435.585155145982</v>
       </c>
       <c r="Q11" t="n">
-        <v>3406.619991192858</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="R11" t="n">
-        <v>3406.619991192858</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S11" t="n">
-        <v>3322.968117376695</v>
+        <v>4794.683309974729</v>
       </c>
       <c r="T11" t="n">
-        <v>3102.900890249733</v>
+        <v>4574.616082847768</v>
       </c>
       <c r="U11" t="n">
-        <v>3102.900890249733</v>
+        <v>4315.393780164784</v>
       </c>
       <c r="V11" t="n">
-        <v>3102.900890249733</v>
+        <v>3952.776830098611</v>
       </c>
       <c r="W11" t="n">
-        <v>2698.045435660767</v>
+        <v>3777.934068662771</v>
       </c>
       <c r="X11" t="n">
-        <v>2698.045435660767</v>
+        <v>3358.791605242081</v>
       </c>
       <c r="Y11" t="n">
-        <v>2289.75931196042</v>
+        <v>2950.505481541735</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>574.3041448151499</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C12" t="n">
-        <v>467.8476836517922</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D12" t="n">
-        <v>372.7573947983455</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E12" t="n">
-        <v>278.6369801252992</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F12" t="n">
-        <v>195.2531417414608</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G12" t="n">
-        <v>109.8680520076447</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H12" t="n">
-        <v>68.13239982385716</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19607298431477</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J12" t="n">
-        <v>418.754397950527</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K12" t="n">
-        <v>1073.460444576251</v>
+        <v>1128.922221872865</v>
       </c>
       <c r="L12" t="n">
-        <v>1073.460444576251</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="M12" t="n">
-        <v>1073.460444576251</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="N12" t="n">
-        <v>1073.460444576251</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="O12" t="n">
-        <v>1073.460444576251</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="P12" t="n">
-        <v>1073.460444576251</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.199383208326</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R12" t="n">
-        <v>1731.372161302666</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S12" t="n">
-        <v>1667.916723751049</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T12" t="n">
-        <v>1537.738080081651</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U12" t="n">
-        <v>1361.401533081619</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V12" t="n">
-        <v>1162.284015143618</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W12" t="n">
-        <v>976.9612608768123</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0938251156923</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y12" t="n">
-        <v>695.6080458949131</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>918.6284369007883</v>
+        <v>948.0627407527491</v>
       </c>
       <c r="C13" t="n">
-        <v>746.0667253840132</v>
+        <v>775.501029235974</v>
       </c>
       <c r="D13" t="n">
-        <v>580.1887325855359</v>
+        <v>609.6230364374967</v>
       </c>
       <c r="E13" t="n">
-        <v>410.4307288362733</v>
+        <v>439.865032688234</v>
       </c>
       <c r="F13" t="n">
-        <v>233.7236747980295</v>
+        <v>263.1579786499902</v>
       </c>
       <c r="G13" t="n">
-        <v>68.13239982385716</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="H13" t="n">
-        <v>68.13239982385716</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I13" t="n">
-        <v>68.13239982385716</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J13" t="n">
-        <v>154.712084988547</v>
+        <v>184.1463888405077</v>
       </c>
       <c r="K13" t="n">
-        <v>429.4705395596826</v>
+        <v>458.9048434116433</v>
       </c>
       <c r="L13" t="n">
-        <v>847.6804213276437</v>
+        <v>877.1147251796043</v>
       </c>
       <c r="M13" t="n">
-        <v>1307.164288508557</v>
+        <v>1336.598592360517</v>
       </c>
       <c r="N13" t="n">
-        <v>1749.423091666201</v>
+        <v>1778.857395518162</v>
       </c>
       <c r="O13" t="n">
-        <v>2169.092340891983</v>
+        <v>2198.526644743943</v>
       </c>
       <c r="P13" t="n">
-        <v>2516.599234862325</v>
+        <v>2546.033538714285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2684.792009726657</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="R13" t="n">
-        <v>2684.792009726657</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="S13" t="n">
-        <v>2666.552840683973</v>
+        <v>2695.987144535933</v>
       </c>
       <c r="T13" t="n">
-        <v>2420.673394262428</v>
+        <v>2450.107698114388</v>
       </c>
       <c r="U13" t="n">
-        <v>2142.240393515533</v>
+        <v>2171.674697367494</v>
       </c>
       <c r="V13" t="n">
-        <v>1855.284885385963</v>
+        <v>1884.719189237924</v>
       </c>
       <c r="W13" t="n">
-        <v>1583.258480972255</v>
+        <v>1612.692784824216</v>
       </c>
       <c r="X13" t="n">
-        <v>1337.866726305667</v>
+        <v>1367.301030157628</v>
       </c>
       <c r="Y13" t="n">
-        <v>1110.447055619776</v>
+        <v>1139.881359471736</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5285,43 +5285,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5464,16 +5464,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T16" t="n">
-        <v>2594.704009018975</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U16" t="n">
-        <v>2316.271008272081</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V16" t="n">
-        <v>2029.315500142511</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W16" t="n">
-        <v>1757.289095728803</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X16" t="n">
         <v>1511.897341062215</v>
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5704,19 +5704,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2117.975449367836</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>949.5782250957668</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>777.0165135789917</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>611.1385207805145</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814754</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6227,19 +6227,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>1039.550377927472</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2114.610344180331</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3271.658179390882</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4397.38916282733</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6406,16 +6406,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
         <v>1889.413325832886</v>
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,19 +6464,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1706.046870644501</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1233.235445292022</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,10 +6710,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
@@ -6835,31 +6835,31 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886293</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030281</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666415</v>
+        <v>607.5224631666412</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412738</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799776</v>
+        <v>298.0235489799774</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>174.521082083228</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708293</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773248</v>
+        <v>495.7456864773249</v>
       </c>
       <c r="L34" t="n">
         <v>930.0289214806457</v>
@@ -6871,34 +6871,34 @@
         <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P34" t="n">
         <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.167761876911</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.134468542892</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826199</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W34" t="n">
         <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y34" t="n">
         <v>1241.939960298639</v>
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7075,16 +7075,16 @@
         <v>910.359044888629</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030278</v>
+        <v>760.8807595030279</v>
       </c>
       <c r="E37" t="n">
-        <v>607.522463166641</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412734</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799771</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H37" t="n">
         <v>174.5210820832282</v>
@@ -7093,13 +7093,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708293</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773248</v>
+        <v>495.7456864773249</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806456</v>
+        <v>930.0289214806457</v>
       </c>
       <c r="M37" t="n">
         <v>1405.586141896919</v>
@@ -7117,7 +7117,7 @@
         <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S37" t="n">
         <v>2699.647500885579</v>
@@ -7135,7 +7135,7 @@
         <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y37" t="n">
         <v>1241.939960298639</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206712</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803011</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390332</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961503</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835866</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197266</v>
+        <v>370.2971508197257</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581899</v>
+        <v>97.56670367581808</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7184,40 +7184,40 @@
         <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428596</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998903</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832299</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790893</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403415</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574027</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566214</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278743</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
         <v>448.1887018024878</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936677</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080665</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850155</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,34 +7348,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
         <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
@@ -7397,64 +7397,64 @@
         <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835853</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936676</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080664</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716798</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463121</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7588,7 +7588,7 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579745</v>
@@ -7603,16 +7603,16 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.390877206709</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.138034390329</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.295274783586</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197254</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>1607.881357381595</v>
       </c>
       <c r="M44" t="n">
-        <v>2523.346856428596</v>
+        <v>2764.929192592146</v>
       </c>
       <c r="N44" t="n">
-        <v>2523.346856428596</v>
+        <v>3890.660176028593</v>
       </c>
       <c r="O44" t="n">
-        <v>3503.526522998903</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="P44" t="n">
-        <v>4331.836397832299</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790893</v>
+        <v>4870.8398425989</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403412</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750115</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574024</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
         <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7783,61 +7783,61 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936672</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463118</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850156</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>200.2197420758677</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>491.0515498823632</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>925.3347848856841</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1400.892005301956</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.22416169496</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156102</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361803</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461495</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579743</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290616</v>
       </c>
       <c r="T46" t="n">
         <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V46" t="n">
         <v>1932.884531231236</v>
@@ -7846,7 +7846,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y46" t="n">
         <v>1237.245823703677</v>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.3343479384984</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.4167745482901</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482901</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.0444728226854</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>545.3174511867338</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>545.3174511867338</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>352.4217311862024</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>545.3174511867337</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>545.3174511867337</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>116.8852847556227</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>545.3174511867337</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>51.02597308015584</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,25 +8690,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>826.1216199700589</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>851.6549977982145</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>851.6549977982145</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>447.222251156476</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8769,10 +8769,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,22 +9480,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9875,22 +9875,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>507.105909296742</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10112,22 +10112,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10358,13 +10358,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>833.0630236930783</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157522</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,28 +11060,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>7.571051709083804</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11297,28 +11297,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.9345526149732</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>7.571051709083804</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22553,10 +22553,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>28.29728396106605</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>255.7695846319904</v>
       </c>
     </row>
     <row r="3">
@@ -22708,10 +22708,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>134.7959418582022</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>227.6148940090922</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>227.7125662215952</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>120.4463752142718</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-9.115254653260844e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>102.9863699957342</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>111.4236523045823</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>90.92021546249528</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>248.5691704774789</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.067857162226574e-13</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.067857162226574e-13</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>890775.2244145252</v>
+        <v>703240.3442058946</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>890775.2244145252</v>
+        <v>893268.5153704886</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>892016.3436429884</v>
+        <v>893269.5248260587</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>661949.7593320056</v>
+        <v>852383.7698119539</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>882753.8870063414</v>
+        <v>882753.8870063415</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>882753.8870063415</v>
+        <v>882753.8870063414</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>882753.8870063415</v>
+        <v>882753.8870063414</v>
       </c>
     </row>
     <row r="12">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53614.73198904086</v>
+        <v>42248.98167336628</v>
       </c>
       <c r="C2" t="n">
-        <v>53614.73198904086</v>
+        <v>53614.73198904085</v>
       </c>
       <c r="D2" t="n">
         <v>53614.73198904086</v>
       </c>
       <c r="E2" t="n">
-        <v>39507.41607093677</v>
+        <v>50873.16638661132</v>
       </c>
       <c r="F2" t="n">
         <v>52685.75841373523</v>
       </c>
       <c r="G2" t="n">
-        <v>52685.75841373523</v>
+        <v>52685.75841373524</v>
       </c>
       <c r="H2" t="n">
-        <v>52685.75841373523</v>
+        <v>52685.75841373524</v>
       </c>
       <c r="I2" t="n">
         <v>52685.75841373523</v>
       </c>
       <c r="J2" t="n">
+        <v>52685.75841373523</v>
+      </c>
+      <c r="K2" t="n">
         <v>52685.75841373524</v>
-      </c>
-      <c r="K2" t="n">
-        <v>52685.75841373523</v>
       </c>
       <c r="L2" t="n">
         <v>53614.73198904088</v>
@@ -26347,13 +26347,13 @@
         <v>53614.73198904088</v>
       </c>
       <c r="N2" t="n">
-        <v>53614.73198904083</v>
+        <v>53614.73198904082</v>
       </c>
       <c r="O2" t="n">
         <v>53614.73198904085</v>
       </c>
       <c r="P2" t="n">
-        <v>53614.73198904086</v>
+        <v>53614.73198904088</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78545.24144524505</v>
       </c>
       <c r="D3" t="n">
-        <v>37592.93764066512</v>
+        <v>30.57595066326716</v>
       </c>
       <c r="E3" t="n">
-        <v>91465.65199216269</v>
+        <v>164835.5352679185</v>
       </c>
       <c r="F3" t="n">
-        <v>122233.5690936863</v>
+        <v>16812.40227510025</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62571.5441737101</v>
       </c>
       <c r="L3" t="n">
-        <v>43618.04443367879</v>
+        <v>13013.48053938576</v>
       </c>
       <c r="M3" t="n">
-        <v>76340.54196576744</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>90115.69674436474</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>110428.2791719538</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122152.3711358299</v>
       </c>
       <c r="D4" t="n">
-        <v>148844.1049828263</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>10682.03781124196</v>
+        <v>13755.1158988389</v>
       </c>
       <c r="F4" t="n">
         <v>14245.20557049264</v>
@@ -26445,19 +26445,19 @@
         <v>14245.20557049264</v>
       </c>
       <c r="L4" t="n">
-        <v>19587.56338712589</v>
+        <v>19587.56338712591</v>
       </c>
       <c r="M4" t="n">
-        <v>19587.56338712589</v>
+        <v>19587.56338712591</v>
       </c>
       <c r="N4" t="n">
-        <v>29443.15222066917</v>
+        <v>29443.15222066925</v>
       </c>
       <c r="O4" t="n">
-        <v>29443.15222066922</v>
+        <v>29443.15222066925</v>
       </c>
       <c r="P4" t="n">
-        <v>29443.15222066924</v>
+        <v>29443.15222066925</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74206.53989253604</v>
       </c>
       <c r="D5" t="n">
-        <v>66782.90103215342</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>51780.62386613143</v>
+        <v>74150.69479362156</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-323301.5966730024</v>
+        <v>-270079.5300534117</v>
       </c>
       <c r="C6" t="n">
-        <v>-181110.2960132924</v>
+        <v>-221289.4204845701</v>
       </c>
       <c r="D6" t="n">
-        <v>-199605.211666604</v>
+        <v>-142759.2217485154</v>
       </c>
       <c r="E6" t="n">
-        <v>-114420.8975985993</v>
+        <v>-201936.7187138284</v>
       </c>
       <c r="F6" t="n">
-        <v>-161511.2548562363</v>
+        <v>-56113.31237703282</v>
       </c>
       <c r="G6" t="n">
-        <v>-39277.68576254993</v>
+        <v>-39300.91010193257</v>
       </c>
       <c r="H6" t="n">
-        <v>-39277.68576254993</v>
+        <v>-39300.91010193257</v>
       </c>
       <c r="I6" t="n">
-        <v>-39277.68576254993</v>
+        <v>-39300.91010193257</v>
       </c>
       <c r="J6" t="n">
-        <v>-150292.1511075401</v>
+        <v>-150315.3754469228</v>
       </c>
       <c r="K6" t="n">
-        <v>-39277.68576254993</v>
+        <v>-101872.4542756427</v>
       </c>
       <c r="L6" t="n">
-        <v>-88674.03437002448</v>
+        <v>-58069.47047573146</v>
       </c>
       <c r="M6" t="n">
-        <v>-121396.5319021131</v>
+        <v>-182633.6906741977</v>
       </c>
       <c r="N6" t="n">
-        <v>-141459.7317020828</v>
+        <v>-51344.03495771815</v>
       </c>
       <c r="O6" t="n">
+        <v>-51344.03495771812</v>
+      </c>
+      <c r="P6" t="n">
         <v>-51344.03495771809</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-51344.0349577181</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482901</v>
       </c>
       <c r="D4" t="n">
-        <v>545.3174511867338</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>851.6549977982145</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.1209170281857</v>
       </c>
       <c r="D4" t="n">
-        <v>121.0215936666295</v>
+        <v>0.09843205956690326</v>
       </c>
       <c r="E4" t="n">
-        <v>306.3375466114807</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="F4" t="n">
-        <v>426.6055055865309</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281857</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0215936666295</v>
+        <v>0.09843205956690326</v>
       </c>
       <c r="M4" t="n">
-        <v>306.3375466114807</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>367.9287981495088</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281857</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0215936666295</v>
+        <v>0.09843205956690326</v>
       </c>
       <c r="M4" t="n">
-        <v>306.3375466114807</v>
+        <v>552.0685893398661</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6055055865309</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>289.3503991845305</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>148.4336778313527</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>61.93221899791743</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>154.5288611677181</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>301.0612843868635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.06191650962984</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>65.87000094136195</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.058079826879464</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>86.5576416575629</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="D10" t="n">
-        <v>128.0851005486406</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874734</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791302636</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874735</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.235710338746</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874741</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34778,10 +34778,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,10 +34790,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.3343479384984</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.4167745482901</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482901</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.0444728226854</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>545.3174511867338</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>545.3174511867338</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>352.4217311862024</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>545.3174511867337</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>545.3174511867337</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>116.8852847556227</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>545.3174511867337</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35349,7 +35349,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>51.02597308015584</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>826.1216199700589</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>851.6549977982145</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>851.6549977982145</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>447.222251156476</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>687.6096162327045</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35571,16 +35571,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512938</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,22 +36200,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36437,7 +36437,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36595,22 +36595,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>507.105909296742</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36759,13 +36759,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36832,22 +36832,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -37078,13 +37078,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>833.0630236930783</v>
       </c>
       <c r="Q32" t="n">
         <v>552.0189757157523</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37239,7 +37239,7 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
         <v>367.2527749552542</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>314.2706063049995</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
@@ -37470,7 +37470,7 @@
         <v>438.6699343467888</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
@@ -37552,19 +37552,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>81.9345526149732</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37716,10 +37716,10 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497274</v>
+        <v>7.571051709083804</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37947,16 +37947,16 @@
         <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343477</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>81.9345526149732</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>7.571051709083804</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L46" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033046</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343482</v>
